--- a/output_data/charts/capacity-FayetteCounty-0500000US39047.xlsx
+++ b/output_data/charts/capacity-FayetteCounty-0500000US39047.xlsx
@@ -42,7 +42,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -856,52 +856,52 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7050</c:v>
+                  <c:v>7.05</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7000</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>332000</c:v>
+                  <c:v>332</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>49690</c:v>
+                  <c:v>49.69</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15540</c:v>
+                  <c:v>15.54</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11210</c:v>
+                  <c:v>11.21</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6000</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13540</c:v>
+                  <c:v>13.54</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>56435</c:v>
+                  <c:v>56.435</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44440</c:v>
+                  <c:v>44.44</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>108540</c:v>
+                  <c:v>108.54</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>117900</c:v>
+                  <c:v>117.9</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>70910</c:v>
+                  <c:v>70.91</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>60840</c:v>
+                  <c:v>60.84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1342,14 +1342,14 @@
                   <a:rPr lang="en-US" sz="900" baseline="0">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Watts</a:t>
+                  <a:t>Kilowatts (kW)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="[&gt;=1000]#,##0,&quot;K&quot;" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:tickLblPos val="low"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>7050</v>
+        <v>7.05</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>7000</v>
+        <v>7</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>332000</v>
+        <v>332</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>49690</v>
+        <v>49.69</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="2">
-        <v>15540</v>
+        <v>15.54</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="2">
-        <v>11210</v>
+        <v>11.21</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="2">
-        <v>6000</v>
+        <v>6</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <v>13540</v>
+        <v>13.54</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="2">
-        <v>56435</v>
+        <v>56.435</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="2">
-        <v>44440</v>
+        <v>44.44</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="2">
-        <v>108540</v>
+        <v>108.54</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>117900</v>
+        <v>117.9</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="2">
-        <v>70910</v>
+        <v>70.91</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>60840</v>
+        <v>60.84</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>

--- a/output_data/charts/capacity-FayetteCounty-0500000US39047.xlsx
+++ b/output_data/charts/capacity-FayetteCounty-0500000US39047.xlsx
@@ -874,7 +874,7 @@
                   <c:v>15.54</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.21</c:v>
+                  <c:v>10.37</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>6</c:v>
@@ -901,7 +901,7 @@
                   <c:v>70.91</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>60.84</c:v>
+                  <c:v>101.668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="2">
-        <v>11.21</v>
+        <v>10.37</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>60.84</v>
+        <v>101.668</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
